--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\CPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
-    <sheet name="Manipulation" sheetId="9" r:id="rId2"/>
-    <sheet name="Fundamentals" sheetId="10" r:id="rId3"/>
-    <sheet name="Tokenizing" sheetId="12" r:id="rId4"/>
-    <sheet name="Conversion" sheetId="11" r:id="rId5"/>
+    <sheet name="Manipulation" sheetId="16" r:id="rId2"/>
+    <sheet name="Tokenizing" sheetId="13" r:id="rId3"/>
+    <sheet name="Conversion" sheetId="14" r:id="rId4"/>
+    <sheet name="Fundamentals" sheetId="15" r:id="rId5"/>
     <sheet name="click-drag add module test here" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1496,6 +1496,12 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tim McKenna</author>
+    <author>tc={84621947-B244-4ADE-9296-CF85DF9300F5}</author>
+    <author>tc={E2A5ED19-9531-4750-A3B6-3F56A9A98B1B}</author>
+    <author>tc={ED805518-11FD-4007-AB13-C070C782DB82}</author>
+    <author>tc={510CF56B-036B-4DD4-8BE1-8BACE085202D}</author>
+    <author>tc={E92FB2A3-2684-4F0D-9A5D-FECAC413DB10}</author>
+    <author>tc={036B8DD5-4E62-4152-9262-F490F9DA7BBA}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0">
@@ -1740,6 +1746,209 @@
         </r>
       </text>
     </comment>
+    <comment ref="D7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+Word #1 is 'I'
+Word #2 is 'STUDY'
+Word #3 is 'AT'
+Word #4 is 'SENECA'
+Word #5 is 'COLLEGE,'
+Word #6 is 'NEWNHAM'
+Word #7 is 'CAMPUS.'
+Word #8 is 'MY'
+Word #9 is 'COURSE'
+Word #10 is 'IS'
+Word #11 is 'COMPUTER'
+Word #12 is 'PROGRAMMING(CPP).'
+Word #13 is 'I'
+Word #14 is 'LOVE'
+Word #15 is 'MY'
+Word #16 is 'COLLEGE.'
+Word #17 is 'MY'
+Word #18 is 'FIRST'
+Word #19 is 'SEMESTER'
+Word #20 is 'IS'
+Word #21 is 'GOING'
+Word #22 is 'TO'
+Word #23 is 'END'
+Word #24 is 'SOON.'
+Word #25 is 'I'
+Word #26 is 'HAD'
+Word #27 is 'A'
+Word #28 is 'LOT'
+Word #29 is 'OF'
+Word #30 is 'FUN'
+Word #31 is 'DURING'
+Word #32 is 'THE'
+Word #33 is 'FIRST'
+Word #34 is 'SEMESTER.'
+Word #35 is 'I'
+Word #36 is 'LEARNED'
+Word #37 is 'A'
+Word #38 is 'LOT'
+Word #39 is 'OF'
+Word #40 is 'NEW'
+Word #41 is 'THINGS'
+Word #42 is 'AND'
+Word #43 is 'HAD'
+Word #44 is 'GREAT'
+Word #45 is 'EXPERIENCE.'
+Word #46 is 'SENECA'
+Word #47 is 'HAS'
+Word #48 is '4'
+Word #49 is 'CAMPUSES'
+Word #50 is 'NEWNHAM,'
+Word #51 is 'YORK,'
+Word #52 is 'MARKHAM,'
+Word #53 is 'AND'
+Word #54 is 'KING'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Word #1 is 'I'
+Word #2 is 'STUDY'
+Word #3 is 'AT'
+Word #4 is 'SENECA'
+Word #5 is 'COLLEGE,'
+Word #6 is 'NEWNHAM'
+Word #7 is 'CAMPUS.'
+Word #8 is 'MY'
+Word #9 is 'COURSE'
+Word #10 is 'IS'
+Word #11 is 'COMPUTER'
+Word #12 is 'PROGRAMMING(CPP).'
+Word #13 is 'I'
+Word #14 is 'LOVE'
+Word #15 is 'MY'
+Word #16 is 'COLLEGE.'
+Word #17 is 'MY'
+Word #18 is 'FIRST'
+Word #19 is 'SEMESTER'
+Word #20 is 'IS'
+Word #21 is 'GOING'
+Word #22 is 'TO'
+Word #23 is 'END'
+Word #24 is 'SOON.'
+Word #25 is 'I'
+Word #26 is 'HAD'
+Word #27 is 'A'
+Word #28 is 'LOT'
+Word #29 is 'OF'
+Word #30 is 'FUN'
+Word #31 is 'DURING'
+Word #32 is 'THE'
+Word #33 is 'FIRST'
+Word #34 is 'SEMESTER.'
+Word #35 is 'I'
+Word #36 is 'LEARNED'
+Word #37 is 'A'
+Word #38 is 'LOT'
+Word #39 is 'OF'
+Word #40 is 'NEW'
+Word #41 is 'THINGS'
+Word #42 is 'AND'
+Word #43 is 'HAD'
+Word #44 is 'GREAT'
+Word #45 is 'EXPERIENCE.'
+Word #46 is 'SENECA'
+Word #47 is 'HAS'
+Word #48 is '4'
+Word #49 is 'CAMPUSES'
+Word #50 is 'NEWNHAM,'
+Word #51 is 'YORK,'
+Word #52 is 'MARKHAM,'
+Word #53 is 'AND'
+Word #54 is 'KING'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Word #1 is 'I'
+Word #2 is 'STUDY'
+Word #3 is 'AT'
+Word #4 is 'SENECA'
+Word #5 is 'COLLEGE,'
+Word #6 is 'NEWNHAM'
+Word #7 is 'CAMPUS.'
+Word #8 is 'MY'
+Word #9 is 'COURSE'
+Word #10 is 'IS'
+Word #11 is 'COMPUTER'
+Word #12 is 'PROGRAMMING(CPP).'
+Word #13 is 'I'
+Word #14 is 'LOVE'
+Word #15 is 'MY'
+Word #16 is 'COLLEGE.'
+Word #17 is 'MY'
+Word #18 is 'FIRST'
+Word #19 is 'SEMESTER'
+Word #20 is 'IS'
+Word #21 is 'GOING'
+Word #22 is 'TO'
+Word #23 is 'END'
+Word #24 is 'SOON.'
+Word #25 is 'I'
+Word #26 is 'HAD'
+Word #27 is 'A'
+Word #28 is 'LOT'
+Word #29 is 'OF'
+Word #30 is 'FUN'
+Word #31 is 'DURING'
+Word #32 is 'THE'
+Word #33 is 'FIRST'
+Word #34 is 'SEMESTER.'
+Word #35 is 'I'
+Word #36 is 'LEARNED'
+Word #37 is 'A'
+Word #38 is 'LOT'
+Word #39 is 'OF'
+Word #40 is 'NEW'
+Word #41 is 'THINGS'
+Word #42 is 'AND'
+Word #43 is 'HAD'
+Word #44 is 'GREAT'
+Word #45 is 'EXPERIENCE.'
+Word #46 is 'SENECA'
+Word #47 is 'HAS'
+Word #48 is '4'
+Word #49 is 'CAMPUSES'
+Word #50 is 'NEWNHAM,'
+Word #51 is 'YORK,'
+Word #52 is 'MARKHAM,'
+Word #53 is 'AND'
+Word #54 is 'KING'
+Type a few words separated by space (q - to quit):
+Word #1 is 'this'</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1979,6 +2188,108 @@
           </rPr>
           <t>Required for negative test cases that FAIL
 or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="4" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Phrase #1 is 'I STUDY AT SENECA COLLEGE'
+Phrase #2 is ' NEWNHAM CAMPUS'
+Phrase #3 is ' MY COURSE IS COMPUTER PROGRAMMING(CPP)'
+Phrase #4 is ' I LOVE MY COLLEGE'
+Phrase #5 is ' MY FIRST SEMESTER IS GOING TO END SOON'
+Phrase #6 is ' I HAD A LOT OF FUN DURING THE FIRST SEMESTER'
+Phrase #7 is ' I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE'
+Phrase #8 is ' SENECA HAS 4 CAMPUSES NEWNHAM'
+Phrase #9 is ' YORK'
+Phrase #10 is ' MARKHAM'
+Phrase #11 is ' AND KING'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="5" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Phrase #1 is 'I STUDY AT SENECA COLLEGE'
+Phrase #2 is ' NEWNHAM CAMPUS'
+Phrase #3 is ' MY COURSE IS COMPUTER PROGRAMMING(CPP)'
+Phrase #4 is ' I LOVE MY COLLEGE'
+Phrase #5 is ' MY FIRST SEMESTER IS GOING TO END SOON'
+Phrase #6 is ' I HAD A LOT OF FUN DURING THE FIRST SEMESTER'
+Phrase #7 is ' I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE'
+Phrase #8 is ' SENECA HAS 4 CAMPUSES NEWNHAM'
+Phrase #9 is ' YORK'
+Phrase #10 is ' MARKHAM'
+Phrase #11 is ' AND KING'
+Type a few phrases separated by comma (q to quit):
+Type a few phrases separated by comma (q to quit):
+I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING, This was a tough one though
+Phrase #1 is 'I STUDY AT SENECA COLLEGE'
+Phrase #2 is ' NEWNHAM CAMPUS'
+Phrase #3 is ' MY COURSE IS COMPUTER PROGRAMMING(CPP)'
+Phrase #4 is ' I LOVE MY COLLEGE'
+Phrase #5 is ' MY FIRST SEMESTER IS GOING TO END SOON'
+Phrase #6 is ' I HAD A LOT OF FUN DURING THE FIRST SEMESTER'
+Phrase #7 is ' I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE'
+Phrase #8 is ' SENECA HAS 4 CAMPUSES NEWNHAM'
+Phrase #9 is ' YORK'
+Phrase #10 is ' MARKHAM'
+Phrase #11 is ' AND KING'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="6" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Phrase #1 is 'I STUDY AT SENECA COLLEGE'
+Phrase #2 is ' NEWNHAM CAMPUS'
+Phrase #3 is ' MY COURSE IS COMPUTER PROGRAMMING(CPP)'
+Phrase #4 is ' I LOVE MY COLLEGE'
+Phrase #5 is ' MY FIRST SEMESTER IS GOING TO END SOON'
+Phrase #6 is ' I HAD A LOT OF FUN DURING THE FIRST SEMESTER'
+Phrase #7 is ' I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE'
+Phrase #8 is ' SENECA HAS 4 CAMPUSES NEWNHAM'
+Phrase #9 is ' YORK'
+Phrase #10 is ' MARKHAM'
+Phrase #11 is ' AND KING'
+Type a few phrases separated by comma (q to quit):
+Type a few phrases separated by comma (q to quit):
+I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING, This was a tough one though
+Phrase #1 is 'I STUDY AT SENECA COLLEGE'
+Phrase #2 is ' NEWNHAM CAMPUS'
+Phrase #3 is ' MY COURSE IS COMPUTER PROGRAMMING(CPP)'
+Phrase #4 is ' I LOVE MY COLLEGE'
+Phrase #5 is ' MY FIRST SEMESTER IS GOING TO END SOON'
+Phrase #6 is ' I HAD A LOT OF FUN DURING THE FIRST SEMESTER'
+Phrase #7 is ' I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE'
+Phrase #8 is ' SENECA HAS 4 CAMPUSES NEWNHAM'
+Phrase #9 is ' YORK'
+Phrase #10 is ' MARKHAM'
+Phrase #11 is ' AND KING'
+Type a few phrases separated by comma (q to quit):
+Phrase #1 is ' This was a tough one though'</t>
         </r>
       </text>
     </comment>
@@ -2476,7 +2787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2520,7 +2831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2585,7 +2896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2611,7 +2922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2656,7 +2967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2680,7 +2991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2703,7 +3014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2718,7 +3029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2762,7 +3073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2827,7 +3138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2853,7 +3164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2898,7 +3209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2922,7 +3233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2945,7 +3256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3212,7 +3523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3256,7 +3567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3392,7 +3703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3416,7 +3727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3439,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3454,7 +3765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3498,7 +3809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3563,7 +3874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3589,7 +3900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3634,7 +3945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3658,7 +3969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3681,7 +3992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3723,7 +4034,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="217">
   <si>
     <t>Program
 or module:</t>
@@ -3746,10 +4057,6 @@
   <si>
     <t>Run by:
 Date:</t>
-  </si>
-  <si>
-    <t>Tester
-Date</t>
   </si>
   <si>
     <t>Description</t>
@@ -3925,12 +4232,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>do-while iteration construct</t>
-  </si>
-  <si>
-    <t>Testing for normal cases where string are between normal ranges</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -3938,9 +4239,6 @@
   </si>
   <si>
     <t xml:space="preserve">Testing when one string is EMPTY and other string in normal range </t>
-  </si>
-  <si>
-    <t>, CPA</t>
   </si>
   <si>
     <t>CPA</t>
@@ -4157,9 +4455,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>Q could also be set as an exiting condition but the code staes that 'q' will exit so it is positive test case.</t>
-  </si>
-  <si>
     <t>to check if exit condition works</t>
   </si>
   <si>
@@ -4213,18 +4508,6 @@
   </si>
   <si>
     <t>Function does not read special characters at all. If string begins with special character, function outputs a 0</t>
-  </si>
-  <si>
-    <t>A 10 digit number plus 80 decimal sizes</t>
-  </si>
-  <si>
-    <t>10 digit integer return</t>
-  </si>
-  <si>
-    <t>10 digit integer return and an additional overloaded variable return</t>
-  </si>
-  <si>
-    <t>Programmer should indicate max decimal spots should this be an issue going forward. A warning that the numeric string must contain only a certain limit of decimal places is required.</t>
   </si>
   <si>
     <r>
@@ -4252,6 +4535,252 @@
 containing all test cases,
 needs to be submitted.</t>
     </r>
+  </si>
+  <si>
+    <t>the output is not formated as it should be. Moreover, Q could also be set as an exiting condition but the code staes that 'q' will exit so it is ok. But unformatted output turns it to a  negetive test case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrase #1 is 'Q'       or this should exit the code </t>
+  </si>
+  <si>
+    <t>quits the code</t>
+  </si>
+  <si>
+    <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING, This was a tough one though</t>
+  </si>
+  <si>
+    <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING,</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'a'</t>
+  </si>
+  <si>
+    <t>the code executed the statement as expected and tokenized every phrase seperated by ",".</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'This is demo'
+Phrase #2 is 'you may check it out'</t>
+  </si>
+  <si>
+    <t>This is demo,you may check it out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word #1 is 'Q'       or this should exit the code </t>
+  </si>
+  <si>
+    <t>0.23000, .44000 . 96000</t>
+  </si>
+  <si>
+    <t>.23      .44 . 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge Case. Test minimum input size</t>
+  </si>
+  <si>
+    <t>Function does not accept fractions and considers a \ as a special character and therefore does not process it. Still processes special characters such as dollar signs as 0 therefore should be considered if program is used for financial programs.</t>
+  </si>
+  <si>
+    <t>3.000000 , 4.000000, 0.000000</t>
+  </si>
+  <si>
+    <t>3/5 4/9 $3</t>
+  </si>
+  <si>
+    <t>Testing fraction / special characters</t>
+  </si>
+  <si>
+    <t>Function accepts integer value greater than 10 digits.</t>
+  </si>
+  <si>
+    <t>12345678901.123457.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large integer string              Inputs: 12345678901.123456789 </t>
+  </si>
+  <si>
+    <t>output : quits out of the measuring program</t>
+  </si>
+  <si>
+    <t>input - q</t>
+  </si>
+  <si>
+    <t>+' purpose to test the termination of the program as it is designed to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program terminated the program as it is planned to do so. It check the working of the do while loop in the measuring program. </t>
+  </si>
+  <si>
+    <t>Program fails to overcome the issue of over the maximum length of the string instead of diagnostic message, showing the string length is too long, it showed the length of string in parts of 78 characters and then again the remaining characters in next part which is not at all expected from the program. Possible cause of this issue might be because when the loop runs again the buffer is not cleared before getting new input and as there is still some characters present in the buffer. program skips to get input from the user.</t>
+  </si>
+  <si>
+    <t>output : The length of '0987654321098765432109876543210987654321098765432109876543210987654321098765432' is 78. Type a string (q- quit): The length of '10987654321' is 11.</t>
+  </si>
+  <si>
+    <t>output : The length of given string is too long to be saved please try again with upto 79 characters of string.</t>
+  </si>
+  <si>
+    <t>input - 098765432109876543210987654321098765432109876543210987654321098765432109876543210987654321</t>
+  </si>
+  <si>
+    <t>-' purpose to test over the edge test case for the maximum length of the string if it gives proper analysis of the issue.</t>
+  </si>
+  <si>
+    <t>This test is used to check over the edge case of the maximum length of the string and it will check if struct of the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program did not worked as it should be. It only counted 78 characters but instead it should count 79 characters and also it unexpectedly skips to get input from the user which is failure of program. As the maximum length is set upto 80 characters but after eliminating 1 null terminator, still it is not giving 79 characters. Possible cause of this issue could be due to failure of setting null terminator correctly. It seems like null terminator is set to last second position of string instread of first. </t>
+  </si>
+  <si>
+    <t>output : The length of '12345678901234567890123456789012345678901234567890123456789012345678' is 78. and it asked again to type a string and without getting anything it displayed The length of ' ' is 0.</t>
+  </si>
+  <si>
+    <t>output : The length of '123456789012345678901234567890123456789012345678901234567890123456789' is 79</t>
+  </si>
+  <si>
+    <t>+' purpose to test edge case for the maximum length of the string if it gives proper result. It checks the if struct of the measuring string of program.</t>
+  </si>
+  <si>
+    <t>This test is used to check the maximum length of the string if it results correctly or not and it also checks if struct.</t>
+  </si>
+  <si>
+    <t>output : The length of ' ' is 0</t>
+  </si>
+  <si>
+    <t>input - (Empty)</t>
+  </si>
+  <si>
+    <t>-' purpose to test over the edge case to see what will be the output when nothing is entered.</t>
+  </si>
+  <si>
+    <t>This test is used to see if empty string is provided what will happen to the program and it check the if struct ti see whether it is working correctly ot not.</t>
+  </si>
+  <si>
+    <t>output : The length of '$' is 1</t>
+  </si>
+  <si>
+    <t>input - $</t>
+  </si>
+  <si>
+    <t>+' purpose to test the minimum length of the string</t>
+  </si>
+  <si>
+    <t>This test is used to check the program for the minimum edge case to see if output is correct or not. It checks the if struct of do while loop of measuring string.</t>
+  </si>
+  <si>
+    <t>output : The length of 'abcdefgh' is 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input - abcdefgh </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to test if program works correctly as it should be when provided with inputs under limit.</t>
+  </si>
+  <si>
+    <t>This test is used check the output of the program if it is working properly under normal conditions i.e. under limit inputs. And also it will check the if struct of the program.</t>
+  </si>
+  <si>
+    <t>Anirudh
+11 December 2022</t>
+  </si>
+  <si>
+    <t>*** End of Comparing strings Demo ***</t>
+  </si>
+  <si>
+    <t>Testing when user press q</t>
+  </si>
+  <si>
+    <t>When do-while iteration construct evaluates to False</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz' string is less than 'alphabets'</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz, alphabets</t>
+  </si>
+  <si>
+    <t>Testing when one string is maximum range and other string is in normal range</t>
+  </si>
+  <si>
+    <t>When do-while iteration construct is True</t>
+  </si>
+  <si>
+    <t>computers' string is greater than ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computers, </t>
+  </si>
+  <si>
+    <t>Testing when one string is normal range and other is empty string.</t>
+  </si>
+  <si>
+    <t>' string is less than 'programmer'</t>
+  </si>
+  <si>
+    <t>, programmer</t>
+  </si>
+  <si>
+    <t>Testing when one string is empty and other is of normal range.</t>
+  </si>
+  <si>
+    <t>Om Patel
+07/12/2022</t>
+  </si>
+  <si>
+    <t>\n, CPA</t>
+  </si>
+  <si>
+    <t>omabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t>om, abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyza</t>
+  </si>
+  <si>
+    <t>Testing when one string is in normal range and other is of maximum range.</t>
+  </si>
+  <si>
+    <t>Justin
+Dec 1</t>
+  </si>
+  <si>
+    <t>Justin
+Dec 8</t>
+  </si>
+  <si>
+    <t>Tester
+Dec 12</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefgh </t>
+  </si>
+  <si>
+    <t>123456789012345678901234567890123456789012345678901234567890123456789..</t>
+  </si>
+  <si>
+    <t>qinput - 123456789012345678901234567890123456789012345678901234567890123456789</t>
+  </si>
+  <si>
+    <t>computers, ""</t>
+  </si>
+  <si>
+    <t>programmer, coding</t>
+  </si>
+  <si>
+    <t>computers greater than ' '</t>
+  </si>
+  <si>
+    <t>programmer greater than coding</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz alphabets</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxy less than alphabets</t>
   </si>
 </sst>
 </file>
@@ -4704,7 +5233,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4853,6 +5382,30 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4873,7 +5426,35 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5257,16 +5838,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -5280,90 +5861,90 @@
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="52" t="str">
+      <c r="C1" s="60" t="str">
         <f ca="1">"Save this worksheet in an Excel file named " &amp; B1  &amp; "_test_cases.xlsx"</f>
         <v>Save this worksheet in an Excel file named main_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="31" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="27"/>
       <c r="F4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="23"/>
@@ -5371,134 +5952,140 @@
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="47" t="s">
+      <c r="D7" s="48" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>206</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="48" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="D11" s="48" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="23"/>
@@ -5506,20 +6093,20 @@
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="48">
         <v>0</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="23"/>
@@ -5527,10 +6114,10 @@
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="49">
         <v>25.5</v>
@@ -5540,7 +6127,7 @@
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="23"/>
@@ -5548,275 +6135,347 @@
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="23"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
+      <c r="A16" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="56">
+        <v>1</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="56">
+        <v>6</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="56">
+        <v>78</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="55"/>
+      <c r="F23" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="56">
+        <v>1001.1256856</v>
+      </c>
+      <c r="D28" s="56">
+        <v>1001.125686</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="A30" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="F31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>17</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -5827,10 +6486,10 @@
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -5841,10 +6500,10 @@
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -5855,10 +6514,10 @@
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -5869,10 +6528,10 @@
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -5883,10 +6542,10 @@
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -5897,10 +6556,10 @@
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -5911,10 +6570,10 @@
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -5925,10 +6584,10 @@
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -5939,10 +6598,10 @@
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -5953,10 +6612,10 @@
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -5967,10 +6626,10 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -5995,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6015,53 +6674,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="52" t="str">
+        <v>38</v>
+      </c>
+      <c r="C1" s="60" t="str">
         <f>"Save As" &amp; B1 &amp; "_test_cases.xlsx"</f>
         <v>Save AsManipulation_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6073,88 +6732,88 @@
       <c r="F4" s="32"/>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6167,41 +6826,41 @@
       <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="54"/>
+      <c r="A10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6210,29 +6869,89 @@
       <c r="E12" s="6"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>195</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
+      <c r="F13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>192</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
+      <c r="F14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>188</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
@@ -6241,41 +6960,39 @@
       <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="54"/>
+      <c r="A18" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>60</v>
-      </c>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G19" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6286,33 +7003,47 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="6"/>
       <c r="F21" s="32"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="6"/>
       <c r="F22" s="32"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="32"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="6"/>
       <c r="F24" s="32"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="38"/>
       <c r="E25" s="6"/>
       <c r="F25" s="32"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
@@ -6340,10 +7071,10 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6357,8 +7088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6376,315 +7107,408 @@
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="52" t="str">
-        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Fundamentals_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="28" t="str">
+        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
+        <v>Tokenizing</v>
+      </c>
+      <c r="C1" s="60" t="str">
+        <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As Tokenizing_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>76</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="32" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="178.5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>85</v>
+        <v>111</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="38"/>
+        <v>112</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>113</v>
+      </c>
       <c r="F8" s="32" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>98</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E10" s="38"/>
       <c r="F10" s="32" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
+      <c r="F13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
+      <c r="F14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>139</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="32"/>
+      <c r="F17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="A19" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6749,10 +7573,10 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6764,15 +7588,448 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="str">
+        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
+        <v>Conversion</v>
+      </c>
+      <c r="C1" s="60" t="str">
+        <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As Conversion_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="33"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F6:F11 F15:F1048576">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>ISNUMBER(SEARCH("PASS",$F6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ISNUMBER(SEARCH("FAIL",$F6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>ISNUMBER(SEARCH("PASS",$F5))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>ISNUMBER(SEARCH("FAIL",$F5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>ISNUMBER(SEARCH("PASS",$F13))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ISNUMBER(SEARCH("FAIL",$F13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>ISNUMBER(SEARCH("FAIL",$F14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
@@ -6785,312 +8042,397 @@
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="str">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Tokenizing</v>
-      </c>
-      <c r="C1" s="52" t="str">
-        <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Tokenizing_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="60" t="str">
+        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As Fundamentals_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="F6" s="32" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>117</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E8" s="38"/>
       <c r="F8" s="32" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>121</v>
+        <v>85</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="38"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="F9" s="32" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" s="32" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="G12" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
+      <c r="F14" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
+      <c r="F15" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
+      <c r="A19" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="36" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -7155,402 +8497,11 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Conversion</v>
-      </c>
-      <c r="C1" s="52" t="str">
-        <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Conversion_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="39" t="e" cm="1">
-        <f t="array" ref="B7">- Testing maximum input length (BUFFER SIZE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="33"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F6 F8:F1048576">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>ISNUMBER(SEARCH("PASS",$F6))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>ISNUMBER(SEARCH("FAIL",$F6))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>ISNUMBER(SEARCH("PASS",$F5))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>ISNUMBER(SEARCH("FAIL",$F5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>ISNUMBER(SEARCH("PASS",$F7))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7572,7 +8523,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Version 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Version 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
-    <sheet name="Manipulation" sheetId="16" r:id="rId2"/>
-    <sheet name="Tokenizing" sheetId="13" r:id="rId3"/>
-    <sheet name="Conversion" sheetId="14" r:id="rId4"/>
-    <sheet name="Fundamentals" sheetId="15" r:id="rId5"/>
+    <sheet name="manipulation" sheetId="17" r:id="rId2"/>
+    <sheet name="fundamentals" sheetId="18" r:id="rId3"/>
+    <sheet name="Tokenizing" sheetId="20" r:id="rId4"/>
+    <sheet name="Conversion" sheetId="19" r:id="rId5"/>
     <sheet name="click-drag add module test here" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tim McKenna</author>
+    <author>tc={C28E6131-F24E-4569-B75C-563AC1034336}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
@@ -749,6 +750,73 @@
           </rPr>
           <t>Required for a test case that FAILs and/or
 for unexpected results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'</t>
         </r>
       </text>
     </comment>
@@ -1496,12 +1564,751 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tim McKenna</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tim McKenna</author>
     <author>tc={84621947-B244-4ADE-9296-CF85DF9300F5}</author>
     <author>tc={E2A5ED19-9531-4750-A3B6-3F56A9A98B1B}</author>
     <author>tc={ED805518-11FD-4007-AB13-C070C782DB82}</author>
     <author>tc={510CF56B-036B-4DD4-8BE1-8BACE085202D}</author>
     <author>tc={E92FB2A3-2684-4F0D-9A5D-FECAC413DB10}</author>
     <author>tc={036B8DD5-4E62-4152-9262-F490F9DA7BBA}</author>
+    <author>tc={C28E6131-F24E-4569-B75C-563AC1034336}</author>
+    <author>tc={AAACD983-9ADB-44CB-989A-C428F25EBE30}</author>
+    <author>tc={A8564945-41FB-43FA-9394-19B0461C461A}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0">
@@ -2535,739 +3342,210 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Tim McKenna</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
+    <comment ref="D23" authorId="7" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="8" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">but do not use line numbers – </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>they change</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a positive test expecting a successful result.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>−</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Test Input:
-exact data for entry to test the purpose.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is similar to source code in a program: it describes exactly how it will be done.
-The What and Why is in the Description and Purpose.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">expected Output or Response:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">reference value to confirm 
-the result – this is documented </t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">before </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">…what the heading says. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Hover over Result and Comments for more details.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Result:
-PASS or FAIL
-+ Positive test cases are expected to PASS.
-- Negative test cases:
-PASS if the program handles input that cannot be processed accurately.
-FAIL if an operating system message appears, or if the program gives inaccurate output. 
-E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
-It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
-It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Required for negative test cases that FAIL
-or for unexpect results.</t>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="9" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Senetnce #1 is 'I'
+Senetnce #2 is 'STUDY'
+Senetnce #3 is 'AT'
+Senetnce #4 is 'SENECA'
+Senetnce #5 is 'COLLEGE'
+Senetnce #6 is 'NEWNHAM'
+Senetnce #7 is 'CAMPUS'
+Senetnce #8 is 'MY'
+Senetnce #9 is 'COURSE'
+Senetnce #10 is 'IS'
+Senetnce #11 is 'COMPUTER'
+Senetnce #12 is 'PROGRAMMING(CPP)'
+Senetnce #13 is 'I'
+Senetnce #14 is 'LOVE'
+Senetnce #15 is 'MY'
+Senetnce #16 is 'COLLEGE'
+Senetnce #17 is 'MY'
+Senetnce #18 is 'FIRST'
+Senetnce #19 is 'SEMESTER'
+Senetnce #20 is 'IS'
+Senetnce #21 is 'GOING'
+Senetnce #22 is 'TO'
+Senetnce #23 is 'END'
+Senetnce #24 is 'SOON'
+Senetnce #25 is 'I'
+Senetnce #26 is 'HAD'
+Senetnce #27 is 'A'
+Senetnce #28 is 'LOT'
+Senetnce #29 is 'OF'
+Senetnce #30 is 'FUN'
+Senetnce #31 is 'DURING'
+Senetnce #32 is 'THE'
+Senetnce #33 is 'FIRST'
+Senetnce #34 is 'SEMESTER'
+Senetnce #35 is 'I'
+Senetnce #36 is 'LEARNED'
+Senetnce #37 is 'A'
+Senetnce #38 is 'LOT'
+Senetnce #39 is 'OF'
+Senetnce #40 is 'NEW'
+Senetnce #41 is 'THINGS'
+Senetnce #42 is 'AND'
+Senetnce #43 is 'HAD'
+Senetnce #44 is 'GREAT'
+Senetnce #45 is 'EXPERIENCE'
+Senetnce #46 is 'SENECA'
+Senetnce #47 is 'HAS'
+Senetnce #48 is '4'
+Senetnce #49 is 'CAMPUSES'
+Senetnce #50 is 'NEWNHAM'
+Senetnce #51 is 'YORK'
+Senetnce #52 is 'MARKHAM'
+Senetnce #53 is 'AND'
+Senetnce #54 is 'KING'
+Type a few sentences separated by dot (q  - to quit):
+Senetnce #1 is 'I'
+Senetnce #2 is 'AM'
+Senetnce #3 is 'FELLING'
+Senetnce #4 is 'GREAT'</t>
         </r>
       </text>
     </comment>
@@ -3523,7 +3801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3567,7 +3845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3632,7 +3910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3658,7 +3936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3703,7 +3981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3727,7 +4005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3750,7 +4028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3765,7 +4043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3809,7 +4087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3874,7 +4152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3900,7 +4178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3945,7 +4223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3969,7 +4247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3992,7 +4270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4011,48 +4289,11 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="290">
   <si>
     <t>Program
 or module:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Version 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
-    </r>
   </si>
   <si>
     <t>Run by:
@@ -4122,9 +4363,6 @@
     <t>minimal edge case</t>
   </si>
   <si>
-    <t>abcdefgh</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -4182,36 +4420,6 @@
     <t>10 digit numeric string</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Version 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Version 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Basic Test Cases to confirm module functionality when integrated into an application.</t>
-    </r>
-  </si>
-  <si>
     <t>Manipulation</t>
   </si>
   <si>
@@ -4389,79 +4597,10 @@
     <t>Program fails to handle the unexpected inputs. This needs to be reviewed again and should add condition to validate the inputs to see the expected outputs.</t>
   </si>
   <si>
-    <t>to test if code works</t>
-  </si>
-  <si>
-    <t>+'</t>
-  </si>
-  <si>
-    <t>the code executed the statement as expected and tokenized every string seperated by space.</t>
-  </si>
-  <si>
-    <t>to check lower timit of code</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Word #1 is 'a'</t>
-  </si>
-  <si>
-    <t>the code resulted the output expected.</t>
-  </si>
-  <si>
-    <t>to check if code works without input</t>
-  </si>
-  <si>
-    <t>ENTER'</t>
-  </si>
-  <si>
-    <t>It was expected to give any output as the input was not provided</t>
-  </si>
-  <si>
-    <t>to chek the upper limit</t>
-  </si>
-  <si>
-    <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS. MY COURSE IS COMPUTER PROGRAMMING(CPP). I LOVE MY COLLEGE. MY FIRST SEMESTER IS GOING TO END SOON. I HAD A LOT OF FUN DURING THE FIRST SEMESTER. I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE. SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING.</t>
-  </si>
-  <si>
-    <t>prints 300 charcters or 54 words in sequence as it should.</t>
-  </si>
-  <si>
-    <t>the output was expected. I entered 300 characters which is the border of functioning code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to check the output if input exceeds </t>
-  </si>
-  <si>
-    <t>-'</t>
-  </si>
-  <si>
-    <t>First 300 characterrs must  be printed. And rest must be overlooked and not printed</t>
-  </si>
-  <si>
-    <t>First 300 characterrs must  be printed. And rest must be overlooked and not printed. But it is stored in buffer and the automatically inputs the next time code is executed.</t>
-  </si>
-  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear buffer. As the extra characters act as input for thext time. </t>
-  </si>
-  <si>
-    <t>to check if codes exit condition is case sensetive</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>to check if exit condition works</t>
-  </si>
-  <si>
-    <t>exited to code</t>
-  </si>
-  <si>
-    <t>It works great.</t>
   </si>
   <si>
     <t>Justin Lee
@@ -4537,37 +4676,13 @@
     </r>
   </si>
   <si>
-    <t>the output is not formated as it should be. Moreover, Q could also be set as an exiting condition but the code staes that 'q' will exit so it is ok. But unformatted output turns it to a  negetive test case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phrase #1 is 'Q'       or this should exit the code </t>
-  </si>
-  <si>
-    <t>quits the code</t>
-  </si>
-  <si>
-    <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING, This was a tough one though</t>
-  </si>
-  <si>
     <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING,</t>
-  </si>
-  <si>
-    <t>Phrase #1 is 'a'</t>
-  </si>
-  <si>
-    <t>the code executed the statement as expected and tokenized every phrase seperated by ",".</t>
   </si>
   <si>
     <t>Phrase #1 is 'This is demo'
 Phrase #2 is 'you may check it out'</t>
   </si>
   <si>
-    <t>This is demo,you may check it out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word #1 is 'Q'       or this should exit the code </t>
-  </si>
-  <si>
     <t>0.23000, .44000 . 96000</t>
   </si>
   <si>
@@ -4607,9 +4722,6 @@
     <t>+' purpose to test the termination of the program as it is designed to work.</t>
   </si>
   <si>
-    <t xml:space="preserve">This test is used to see if program terminated the program as it is planned to do so. It check the working of the do while loop in the measuring program. </t>
-  </si>
-  <si>
     <t>Program fails to overcome the issue of over the maximum length of the string instead of diagnostic message, showing the string length is too long, it showed the length of string in parts of 78 characters and then again the remaining characters in next part which is not at all expected from the program. Possible cause of this issue might be because when the loop runs again the buffer is not cleared before getting new input and as there is still some characters present in the buffer. program skips to get input from the user.</t>
   </si>
   <si>
@@ -4665,9 +4777,6 @@
   </si>
   <si>
     <t>This test is used to check the program for the minimum edge case to see if output is correct or not. It checks the if struct of do while loop of measuring string.</t>
-  </si>
-  <si>
-    <t>output : The length of 'abcdefgh' is 6</t>
   </si>
   <si>
     <t xml:space="preserve">input - abcdefgh </t>
@@ -4746,34 +4855,232 @@
 Dec 8</t>
   </si>
   <si>
-    <t>Tester
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcdefgh </t>
+  </si>
+  <si>
+    <t>123456789012345678901234567890123456789012345678901234567890123456789..</t>
+  </si>
+  <si>
+    <t>*** End of Search strings Demo ***</t>
+  </si>
+  <si>
+    <t>wxyz' found at '22' position</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz, wxyz</t>
+  </si>
+  <si>
+    <t>Testing when first string is of maximum length.</t>
+  </si>
+  <si>
+    <t>This happens because if nothing is entered, the string automatically matches the '\0' character present at the end of each string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">' found at '0' position </t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>\n, \n</t>
+  </si>
+  <si>
+    <t>Testing when both string are empty strings.</t>
+  </si>
+  <si>
+    <t>programming, code</t>
+  </si>
+  <si>
+    <t>Testing when second string is not a substring of first string</t>
+  </si>
+  <si>
+    <t>om' found at '0' position</t>
+  </si>
+  <si>
+    <t>ompatel, om</t>
+  </si>
+  <si>
+    <t>Testing when second string is a substring of first string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Om Patel 
+12/12/2022 </t>
+  </si>
+  <si>
+    <t>output : terminates out of the system</t>
+  </si>
+  <si>
+    <t>input :q</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to check if program terminates properly or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program terminated out of system as it is planned to do so. It checks the working of the do while loop in the copying program. </t>
+  </si>
+  <si>
+    <t>output : new destination string is 'Q'</t>
+  </si>
+  <si>
+    <t>input : Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to see if program is case sensitive or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program is dependent on case sensitivity or not. It checks the working of the do while loop and if struct in the copying program. </t>
+  </si>
+  <si>
+    <t>Program fails to handle over the edge case of maximum length of string instead of diagnostic message, showing the string length is too long, it showed the length of string in parts of 78 characters and then again the remaining characters in next part which is not at all expected from the program. Possible cause of this issue might be because when the loop runs again and the buffer is not cleared properly before getting new input and as there is still some characters present in the buffer. program skips to get input from the user.</t>
+  </si>
+  <si>
+    <t>output :new destination string is '123456789012345678901234567890123456789012345678901234567890123456789012345678' destination string is reset to empty and new destination string is '901234567890'</t>
+  </si>
+  <si>
+    <t>output : should show validation message that entered string is too long and should show range of characters upto which it can store characters.</t>
+  </si>
+  <si>
+    <t>input : 123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '-' purpose to test if program handles over the edge case of the maximum string length or not.</t>
+  </si>
+  <si>
+    <t>this test is used to check the output of the maximum over the edge case of the program to see if it work well or not. It will check the if struct and do-while loop both.</t>
+  </si>
+  <si>
+    <t>Program fails to run on the maximum edge case as it only copied upto 78 characters to new variable but it should be copying upto maximum of 79 characters as max size is set to 80 and after eliminating 1 null terninator position, still it copied 1 character less also it unexpectedly asked to enter string which was followed by nw output of empty destination string. This is complete failure of the program. To make it work, null terminator needs to be set again and buffer needs to be cleared properly.</t>
+  </si>
+  <si>
+    <t>output :new destination string is '123456789012345678901234567890123456789012345678901234567890123456789012345678' destination string is reset to empty and new destination string is ' '</t>
+  </si>
+  <si>
+    <t>output :new destination string is '1234567890123456789012345678901234567890123456789012345678901234567890123456789'</t>
+  </si>
+  <si>
+    <t>input : 1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to test maximum edge case of the program </t>
+  </si>
+  <si>
+    <t>this test is used to check the output of the maximum edge case of the program to see if it work well or not. It will check the if struct and do-while loop both.</t>
+  </si>
+  <si>
+    <t>output :new destination string is '123456789012345678901234567890123456789012345678901234567890123456789012345678'</t>
+  </si>
+  <si>
+    <t>input : 123456789012345678901234567890123456789012345678901234567890123456789012345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '+' purpose to test around the maximum limit of characters that string can hold. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to check output near the maximum limit of the characters that string can hold and also it will check the if struct of the program. </t>
+  </si>
+  <si>
+    <t>From programmer point of view program works perfectly as it should be without any unexpected results but the diagnosis message should also be displayed along with maximum range of characters string can hold. It will give more clearity to the program from user end.</t>
+  </si>
+  <si>
+    <t>output:should show empty string along with diagnosis message enter some characters along with maximum limit of characters.</t>
+  </si>
+  <si>
+    <t>input : (Empty string)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '- ' purpose to test how the program will behave if nothing is provided in the string.</t>
+  </si>
+  <si>
+    <t>This test is used to test over the edge case for the minimum length of the string and it will check the if struct of the program</t>
+  </si>
+  <si>
+    <t>output : new destination string is '#'</t>
+  </si>
+  <si>
+    <t>input : #</t>
+  </si>
+  <si>
+    <t>+' purpose to test the minimum length of the string if output is correct or not</t>
+  </si>
+  <si>
+    <t>This test is used to check the program for the minimum edge case to see if output is correct or not. It checks the if struct of do while loop of input string.</t>
+  </si>
+  <si>
+    <t>output : new destination string is 'my name is anirudh'</t>
+  </si>
+  <si>
+    <t>input : my name is anirudh</t>
+  </si>
+  <si>
+    <t>This test is used check the output of the program if it is working properly under normal conditions with proper inputs. And also it will check the if struct of the program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test is used to see if program terminated the program as it is planned to do so. It checks the working of the do while loop in the measuring program. </t>
+  </si>
+  <si>
+    <t>input - 1234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
+  </si>
+  <si>
+    <t>output : The length of 'abcdefgh' is 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like all previous versions of this function, all special characters are converted to zero unless it is a double using a decimal. It only processes up to the first integer entered and not any after a special character or space. </t>
+  </si>
+  <si>
+    <t>3 , 0 , 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/5, $9, .54 </t>
+  </si>
+  <si>
+    <t>Testing fraction / special characters/ decimals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long float type still does not allow for input to be more than 10 digits. Programmer should not to user that any integral value over 10 can only be used with double conversion and not int or float. </t>
+  </si>
+  <si>
+    <t>Justin
 Dec 12</t>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abcdefgh </t>
-  </si>
-  <si>
-    <t>123456789012345678901234567890123456789012345678901234567890123456789..</t>
-  </si>
-  <si>
-    <t>qinput - 123456789012345678901234567890123456789012345678901234567890123456789</t>
+    <t>Normal Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  Minimum edge case</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Save this worksheet in an Excel file named main_test_cases.xlsx</t>
+  </si>
+  <si>
+    <t>Version 1
+Basic Test Cases to confirm module functionality when integrated into an application.</t>
+  </si>
+  <si>
+    <t>+ / − Purpose</t>
+  </si>
+  <si>
+    <t>Version 2
+Basic Test Cases to confirm module functionality when integrated into an application.</t>
   </si>
   <si>
     <t>computers, ""</t>
   </si>
   <si>
+    <t>computers greater than ' '</t>
+  </si>
+  <si>
     <t>programmer, coding</t>
   </si>
   <si>
-    <t>computers greater than ' '</t>
-  </si>
-  <si>
     <t>programmer greater than coding</t>
   </si>
   <si>
@@ -4781,6 +5088,144 @@
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxy less than alphabets</t>
+  </si>
+  <si>
+    <t>Version 3
+Basic Test Cases to confirm module functionality when integrated into an application.</t>
+  </si>
+  <si>
+    <t>abcdefgh , 3</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz alphabet</t>
+  </si>
+  <si>
+    <t>The ouput is fine but, Q could also be set as an exiting condition but the code staes that 'q' will exit so it is ok. As output is formatted so turns it to a  positive test case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentences #1 is 'Q'       or this should exit the code </t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'Q'</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>to check if codes exit condition is case sensetive</t>
+  </si>
+  <si>
+    <t>It works great.</t>
+  </si>
+  <si>
+    <t>quits the code</t>
+  </si>
+  <si>
+    <t>to check if exit condition works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear buffer. As the extra characters act as input for thext time. </t>
+  </si>
+  <si>
+    <t>First 300 characterrs must  be printed. And rest must be overlooked and not printed. But it is stored in buffer and the automatically inputs the next time code is executed.</t>
+  </si>
+  <si>
+    <t>First 300 characterrs must  be printed. And rest must be overlooked and not printed</t>
+  </si>
+  <si>
+    <t>I.STUDY.AT.SENECA.COLLEGE..NEWNHAM.CAMPUS..MY.COURSE.IS.COMPUTER.PROGRAMMING(CPP)..I.LOVE.MY.COLLEGE..MY.FIRST.SEMESTER.IS.GOING.TO.END.SOON..I.HAD.A.LOT.OF.FUN.DURING.THE.FIRST.SEMESTER..I.LEARNED.A.LOT.OF.NEW.THINGS.AND.HAD.GREAT.EXPERIENCE..SENECA.HAS.4.CAMPUSES.NEWNHAM..YORK..MARKHAM..AND.KING.I.AM.FELLING.GREAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to check the output if input exceeds </t>
+  </si>
+  <si>
+    <t>the output was expected. I entered 300 characters which is the border of functioning code</t>
+  </si>
+  <si>
+    <t>prints 300 charcters or 54 words in sequence as it should.</t>
+  </si>
+  <si>
+    <t>I.STUDY.AT.SENECA.COLLEGE..NEWNHAM.CAMPUS..MY.COURSE.IS.COMPUTER.PROGRAMMING(CPP)..I.LOVE.MY.COLLEGE..MY.FIRST.SEMESTER.IS.GOING.TO.END.SOON..I.HAD.A.LOT.OF.FUN.DURING.THE.FIRST.SEMESTER..I.LEARNED.A.LOT.OF.NEW.THINGS.AND.HAD.GREAT.EXPERIENCE..SENECA.HAS.4.CAMPUSES.NEWNHAM..YORK..MARKHAM..AND.KING</t>
+  </si>
+  <si>
+    <t>+'</t>
+  </si>
+  <si>
+    <t>to chek the upper limit</t>
+  </si>
+  <si>
+    <t>the code resulted the output expected.</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'saksham'</t>
+  </si>
+  <si>
+    <t>saksham.</t>
+  </si>
+  <si>
+    <t>to check lower timit of code</t>
+  </si>
+  <si>
+    <t>the code executed the statement as expected and tokenized every phrase seperated by ".".</t>
+  </si>
+  <si>
+    <t>Senetnce #1 is 'i'
+Senetnce #2 is 'am'
+Senetnce #3 is 'saksham'</t>
+  </si>
+  <si>
+    <t>i.am.saksham</t>
+  </si>
+  <si>
+    <t>to test if code works</t>
+  </si>
+  <si>
+    <t>the output is not formated as it should be. Moreover, Q could also be set as an exiting condition but the code staes that 'q' will exit so it is ok. But unformatted output turns it to a  negetive test case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrase #1 is 'Q'       or this should exit the code </t>
+  </si>
+  <si>
+    <t>-'</t>
+  </si>
+  <si>
+    <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS, MY COURSE IS COMPUTER PROGRAMMING(CPP), I LOVE MY COLLEGE, MY FIRST SEMESTER IS GOING TO END SOON, I HAD A LOT OF FUN DURING THE FIRST SEMESTER, I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE, SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING, This was a tough one though</t>
+  </si>
+  <si>
+    <t>Phrase #1 is 'a'</t>
+  </si>
+  <si>
+    <t>the code executed the statement as expected and tokenized every phrase seperated by ",".</t>
+  </si>
+  <si>
+    <t>This is demo,you may check it out</t>
+  </si>
+  <si>
+    <t>exited to code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word #1 is 'Q'       or this should exit the code </t>
+  </si>
+  <si>
+    <t>I STUDY AT SENECA COLLEGE, NEWNHAM CAMPUS. MY COURSE IS COMPUTER PROGRAMMING(CPP). I LOVE MY COLLEGE. MY FIRST SEMESTER IS GOING TO END SOON. I HAD A LOT OF FUN DURING THE FIRST SEMESTER. I LEARNED A LOT OF NEW THINGS AND HAD GREAT EXPERIENCE. SENECA HAS 4 CAMPUSES NEWNHAM, YORK, MARKHAM, AND KING.</t>
+  </si>
+  <si>
+    <t>It was expected to give any output as the input was not provided</t>
+  </si>
+  <si>
+    <t>ENTER'</t>
+  </si>
+  <si>
+    <t>to check if code works without input</t>
+  </si>
+  <si>
+    <t>Word #1 is 'a'</t>
+  </si>
+  <si>
+    <t>the code executed the statement as expected and tokenized every string seperated by space.</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -4790,7 +5235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4887,12 +5332,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="26"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -4961,7 +5400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -5028,21 +5467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -5066,21 +5490,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5228,12 +5637,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5253,10 +5662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5268,31 +5674,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5301,46 +5704,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5355,34 +5758,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5400,33 +5779,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5836,10 +6310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5849,801 +6323,868 @@
     <col min="3" max="3" width="65.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>main</v>
-      </c>
-      <c r="C1" s="60" t="str">
-        <f ca="1">"Save this worksheet in an Excel file named " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save this worksheet in an Excel file named main_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22" t="s">
+      <c r="C6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>21</v>
+      <c r="D6" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="22" t="s">
-        <v>19</v>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="22" t="s">
-        <v>19</v>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="22" t="s">
-        <v>19</v>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>206</v>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="22" t="s">
-        <v>19</v>
+      <c r="F9" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="3"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>24</v>
+      <c r="A10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="22" t="s">
-        <v>19</v>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="3"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="22" t="s">
-        <v>19</v>
+      <c r="F11" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="3"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="B13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="59">
+        <v>25.5</v>
+      </c>
+      <c r="D14" s="54">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="D15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="48">
-        <v>0</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="49">
-        <v>25.5</v>
-      </c>
-      <c r="D14" s="46">
-        <v>25</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="15" t="s">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="56">
+        <v>169</v>
+      </c>
+      <c r="D18" s="46">
         <v>1</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="22" t="s">
-        <v>19</v>
+      <c r="F18" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="56">
-        <v>6</v>
+      <c r="A19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="46">
+        <v>8</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="22" t="s">
-        <v>19</v>
+      <c r="F19" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="56">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="46">
         <v>78</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="22" t="s">
-        <v>19</v>
+      <c r="F20" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G20" s="3"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>16</v>
+      <c r="A21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="22" t="s">
-        <v>19</v>
+        <v>240</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>25</v>
+      <c r="A22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="22" t="s">
-        <v>19</v>
+      <c r="F22" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>215</v>
+      <c r="B23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>243</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="22" t="s">
-        <v>19</v>
+        <v>244</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G23" s="3"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>16</v>
+      <c r="A24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="22" t="s">
-        <v>19</v>
+      <c r="F24" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>25</v>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="22" t="s">
-        <v>19</v>
+      <c r="F25" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>20</v>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="22" t="s">
-        <v>19</v>
+      <c r="F26" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>16</v>
+      <c r="A27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="22" t="s">
-        <v>19</v>
+      <c r="F27" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="56">
-        <v>1001.1256856</v>
-      </c>
-      <c r="D28" s="56">
+      <c r="A28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="46">
         <v>1001.125686</v>
       </c>
+      <c r="D28" s="46">
+        <v>1001.125686</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="22" t="s">
-        <v>19</v>
+      <c r="F28" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>20</v>
+      <c r="A29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="22" t="s">
-        <v>19</v>
+      <c r="F29" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="15" t="s">
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="F31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+    <row r="34" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>289</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>183</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="20" t="s">
+    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+    <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+    <row r="40" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="52">
+        <v>1</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="22"/>
+      <c r="A42" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="57">
+        <v>25125</v>
+      </c>
+      <c r="D42" s="52">
+        <v>25125</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="42">
+        <v>1234567890</v>
+      </c>
+      <c r="D43" s="42">
+        <v>1234567890</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="F44" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6654,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6665,403 +7206,468 @@
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="60" t="str">
+      <c r="B1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="62" t="str">
         <f>"Save As" &amp; B1 &amp; "_test_cases.xlsx"</f>
         <v>Save AsManipulation_test_cases.xlsx</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="36" t="s">
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="D19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="38" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="D25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="33"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="38"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7071,10 +7677,10 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7088,482 +7694,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="str">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Tokenizing</v>
-      </c>
-      <c r="C1" s="60" t="str">
-        <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Tokenizing_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="62" t="str">
+        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As Fundamentals_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="36" t="s">
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="B13" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="D15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="36" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
+      <c r="C21" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
+      <c r="F21" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
+      <c r="F22" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
+      <c r="F23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
+      <c r="F24" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
+      <c r="F27" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="32"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7573,10 +8276,10 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7588,10 +8291,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7599,418 +8302,575 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Conversion</v>
-      </c>
-      <c r="C1" s="60" t="str">
+      <c r="B1" s="26" t="str">
+        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
+        <v>Tokenizing</v>
+      </c>
+      <c r="C1" s="62" t="str">
         <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Conversion_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+        <v>Save As Tokenizing_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="36" t="s">
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="36" t="s">
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
+      <c r="D20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
+      <c r="F21" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
+      <c r="F22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="32"/>
+      <c r="F23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="32"/>
+      <c r="F25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:F11 F15:F1048576">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>ISNUMBER(SEARCH("PASS",$F6))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>ISNUMBER(SEARCH("FAIL",$F6))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>ISNUMBER(SEARCH("PASS",$F5))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>ISNUMBER(SEARCH("FAIL",$F5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="9" priority="7">
+  <conditionalFormatting sqref="F4:F1048576">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>ISNUMBER(SEARCH("PASS",$F13))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>ISNUMBER(SEARCH("FAIL",$F13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>ISNUMBER(SEARCH("PASS",$F14))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8021,487 +8881,499 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="8" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="60" t="str">
-        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Fundamentals_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="26" t="str">
+        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
+        <v>Conversion</v>
+      </c>
+      <c r="C1" s="62" t="str">
+        <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As Conversion_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="36" t="s">
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="42">
+        <v>12345678901</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="G17" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>157</v>
+      <c r="B18" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>227</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>9</v>
+      <c r="F18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="52">
+        <v>25125</v>
+      </c>
+      <c r="D19" s="52">
+        <v>25125</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="52">
+        <v>1</v>
+      </c>
+      <c r="D20" s="52">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="31"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="32"/>
+      <c r="F25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="F6:F11 F15:F16 F21:F1048576">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>ISNUMBER(SEARCH("PASS",$F6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>ISNUMBER(SEARCH("FAIL",$F6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>ISNUMBER(SEARCH("PASS",$F5))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>ISNUMBER(SEARCH("FAIL",$F5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>ISNUMBER(SEARCH("PASS",$F13))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>ISNUMBER(SEARCH("FAIL",$F13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>ISNUMBER(SEARCH("PASS",$F14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>ISNUMBER(SEARCH("FAIL",$F14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>ISNUMBER(SEARCH("PASS",$F17))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>ISNUMBER(SEARCH("FAIL",$F17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISNUMBER(SEARCH("PASS",$F18))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>ISNUMBER(SEARCH("FAIL",$F18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISNUMBER(SEARCH("PASS",$F20))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>ISNUMBER(SEARCH("FAIL",$F20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F19))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+      <formula>ISNUMBER(SEARCH("FAIL",$F19))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8522,8 +9394,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>136</v>
+      <c r="A1" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
